--- a/Wheat_HSC/raw/Field_overlay_HSC_v3.xlsx
+++ b/Wheat_HSC/raw/Field_overlay_HSC_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="0" windowWidth="14085" windowHeight="9915"/>
+    <workbookView xWindow="9636" yWindow="0" windowWidth="14088" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="Field_overlay" sheetId="6" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>Depth at which SLRGF is 2% (cm)</t>
   </si>
   <si>
-    <t>Root growth factor</t>
-  </si>
-  <si>
     <t>ROOT_DIST()</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>REG_ID</t>
+  </si>
+  <si>
+    <t>Root distribution factor</t>
   </si>
 </sst>
 </file>
@@ -767,26 +767,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
+    <row r="1" spans="1:13" ht="16.8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -825,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -915,17 +913,17 @@
     <row r="9" spans="1:13">
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:13" ht="17.25">
+    <row r="10" spans="1:13" ht="16.8">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="11" spans="1:13" s="1" customFormat="1">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -945,19 +943,19 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="28.8">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -974,25 +972,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
       </c>
       <c r="E13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="14" spans="1:13" s="1" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>97</v>
       </c>
       <c r="E14" s="26"/>
       <c r="H14"/>
@@ -1010,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1024,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1033,7 +1031,7 @@
     <row r="17" spans="1:13">
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:13" ht="17.25">
+    <row r="18" spans="1:13" ht="16.8">
       <c r="A18" s="12" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1041,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="19" spans="1:13" s="1" customFormat="1">
       <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1144,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -1158,10 +1156,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1172,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1186,10 +1184,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1200,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="28">
         <v>1</v>
@@ -1214,10 +1212,10 @@
         <v>15</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1228,10 +1226,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1242,16 +1240,16 @@
         <v>15</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:13" ht="17.25">
+    <row r="35" spans="1:13" ht="16.8">
       <c r="A35" s="12" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1259,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1396,7 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>64</v>
@@ -1415,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
@@ -1434,7 +1432,7 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>64</v>
@@ -1451,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="5">
         <v>0.93</v>
@@ -1465,7 +1463,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="52" spans="1:8" s="1" customFormat="1">
       <c r="A52" s="25" t="s">
         <v>0</v>
       </c>
@@ -1484,13 +1482,13 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="45">
+    <row r="53" spans="1:8" ht="43.2">
       <c r="A53" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>71</v>
@@ -1516,7 +1514,7 @@
         <v>73</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1528,7 +1526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="60">
+    <row r="56" spans="1:8" ht="43.2">
       <c r="A56" s="8" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1617,7 @@
     <row r="61" spans="1:8">
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:8" ht="17.25">
+    <row r="62" spans="1:8" ht="16.8">
       <c r="A62" s="12" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1629,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="63" spans="1:8" s="1" customFormat="1">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1647,7 @@
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="64" spans="1:8" s="1" customFormat="1">
       <c r="A64" s="8" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1690,7 @@
       <c r="B66" s="5"/>
       <c r="D66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="67" spans="1:8" s="1" customFormat="1" ht="28.8">
       <c r="A67" s="8" t="s">
         <v>0</v>
       </c>

--- a/Wheat_HSC/raw/Field_overlay_HSC_v3.xlsx
+++ b/Wheat_HSC/raw/Field_overlay_HSC_v3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="132">
   <si>
     <t>!</t>
   </si>
@@ -335,6 +335,81 @@
   </si>
   <si>
     <t>Root distribution factor</t>
+  </si>
+  <si>
+    <t>Soil water content, air dry</t>
+  </si>
+  <si>
+    <t>Soil water, lower limit</t>
+  </si>
+  <si>
+    <t>SLADR</t>
+  </si>
+  <si>
+    <t>$SLLL</t>
+  </si>
+  <si>
+    <t>APSIM Evaporative diffusion constant</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>DiffusConst</t>
+  </si>
+  <si>
+    <t>APSIM Evaporative diffusion slope</t>
+  </si>
+  <si>
+    <t>DiffusSlope</t>
+  </si>
+  <si>
+    <t>Apsim Cona soil evaporation</t>
+  </si>
+  <si>
+    <t>CONA</t>
+  </si>
+  <si>
+    <t>Summer soil evaporation, upper limit for stage 1</t>
+  </si>
+  <si>
+    <t>SummerU</t>
+  </si>
+  <si>
+    <t>Winter soil evaporation, upper limit for stage 1</t>
+  </si>
+  <si>
+    <t>WinterU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date to switch to SummerU </t>
+  </si>
+  <si>
+    <t>SummerDate__soil</t>
+  </si>
+  <si>
+    <t>03-21</t>
+  </si>
+  <si>
+    <t>Date to switch to WinterU</t>
+  </si>
+  <si>
+    <t>WinterDate__soil</t>
+  </si>
+  <si>
+    <t>09-21</t>
+  </si>
+  <si>
+    <t>APSIM plant specific water uptake coefficient</t>
+  </si>
+  <si>
+    <t>apsim_kl</t>
+  </si>
+  <si>
+    <t>Biologically active soil organic carbon by layer</t>
+  </si>
+  <si>
+    <t>slacc</t>
   </si>
 </sst>
 </file>
@@ -409,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -463,6 +538,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,7 +852,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -1617,112 +1704,504 @@
     <row r="61" spans="1:8">
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:8" ht="16.8">
-      <c r="A62" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="13" t="s">
+    <row r="62" spans="1:8" ht="28.8">
+      <c r="A62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="19"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="28.8">
+      <c r="A65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="H65" s="24"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="21">
+        <v>40</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="19"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="28.8">
+      <c r="A68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="H68" s="24"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="21">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="19"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" ht="28.8">
+      <c r="A71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="H71" s="24"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="19"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="43.2">
+      <c r="A74" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="21">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="19"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="39" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="H77" s="24"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="21">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="19"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="28.8">
+      <c r="A80" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="H80" s="24"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="19"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="39" customHeight="1">
+      <c r="A83" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="19"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" ht="43.2">
+      <c r="A86" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="19"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" ht="28.8">
+      <c r="A89" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.8">
+      <c r="A92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1">
-      <c r="A63" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="11" t="s">
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" s="1" customFormat="1">
+      <c r="A93" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D93" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E93" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1">
-      <c r="A64" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7" t="s">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" s="1" customFormat="1">
+      <c r="A94" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F94" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H94" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="5" t="s">
+    <row r="95" spans="1:8">
+      <c r="A95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D95" t="s">
         <v>36</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E95" t="s">
         <v>19</v>
       </c>
-      <c r="F65">
+      <c r="F95">
         <v>-30</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="B66" s="5"/>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" ht="28.8">
-      <c r="A67" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7" t="s">
+    <row r="96" spans="1:8">
+      <c r="B96" s="5"/>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="1:8" s="1" customFormat="1" ht="28.8">
+      <c r="A97" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="H67" s="4" t="s">
+      <c r="E97" s="16"/>
+      <c r="H97" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1">
-      <c r="A68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="5" t="s">
+    <row r="98" spans="1:8" s="4" customFormat="1">
+      <c r="A98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D98" t="s">
         <v>22</v>
       </c>
-      <c r="E68"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:8" s="1" customFormat="1"/>
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:8" s="1" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" location="Lookupcodesformanagementvariables-PLMA" display="code"/>
